--- a/df2.xlsx
+++ b/df2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinillam\Desktop\vlookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/miguel_martinez_murcia_nokia_com/Documents/Archivos personales/Automatizacion Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7E6B33-08CC-4B73-99B2-1C6081DAEDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7C7E6B33-08CC-4B73-99B2-1C6081DAEDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1F6F08-495E-4AF2-85C9-84E7BFB34C5F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Jugador</t>
   </si>
@@ -60,7 +60,10 @@
     <t>fisico</t>
   </si>
   <si>
-    <t>virtual</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>fisico67</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +419,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -426,8 +429,8 @@
       <c r="B4">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -448,8 +451,8 @@
       <c r="B6">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
